--- a/2min-tddd.xlsx
+++ b/2min-tddd.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Smooth</t>
   </si>
@@ -59,12 +59,15 @@
   <si>
     <t>Param = .5</t>
   </si>
+  <si>
+    <t>Param = .8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,8 +75,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -137,6 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +534,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268610792"/>
-        <c:axId val="268611184"/>
+        <c:axId val="122880768"/>
+        <c:axId val="122877632"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1075,7 +1091,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268610792"/>
+        <c:axId val="122880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,12 +1179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268611184"/>
+        <c:crossAx val="122877632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268611184"/>
+        <c:axId val="122877632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000011"/>
@@ -1257,7 +1273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268610792"/>
+        <c:crossAx val="122880768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1565,7 +1581,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$E$4:$E$23</c:f>
+              <c:f>'b = i div 2'!$H$4:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1634,7 +1650,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$F$4:$F$23</c:f>
+              <c:f>'b = i div 2'!$I$4:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1733,7 +1749,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$H$4:$H$23</c:f>
+              <c:f>'b = i div 2'!$K$4:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1802,7 +1818,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$I$4:$I$23</c:f>
+              <c:f>'b = i div 2'!$L$4:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1865,6 +1881,174 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.79207724294354798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SM = .8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'b = i div 2'!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20.054999737352802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.74010651372301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214.71796196932601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316.41609174805097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>416.86453307364201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516.39846463169397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>616.99410351605104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>716.29633385730904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>816.48922027628396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>918.41102659124897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1037.5761137023001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1145.15666166754</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1253.1452650255001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1363.2580582899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1470.85381091212</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1576.04373535646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1676.3875867797999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1778.20745216515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1882.97520661157</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1991.55223459749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'b = i div 2'!$F$4:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.96272274403089797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93356727414824203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91607377984550498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.900784117037423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88912302634559603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88049416398604496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87138962118294605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86491638161471496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85780481917134799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85038404143258395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83703164642986505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83161719316328298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82278477114670101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.819827652115802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81203224815376895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80703319675380503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80305994302736405</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79498834779358396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79166265517397605</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78637764333771298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,11 +2063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372407672"/>
-        <c:axId val="372406888"/>
+        <c:axId val="122329752"/>
+        <c:axId val="122332496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372407672"/>
+        <c:axId val="122329752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,12 +2124,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372406888"/>
+        <c:crossAx val="122332496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372406888"/>
+        <c:axId val="122332496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -2003,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372407672"/>
+        <c:crossAx val="122329752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2015,6 +2199,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3168,16 +3384,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3203,16 +3419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3499,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
@@ -4504,32 +4720,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="7"/>
+    <col min="7" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4539,14 +4756,17 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -4556,26 +4776,35 @@
       <c r="C4" s="4">
         <v>0.96040486800000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
+        <v>20.054999737352802</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.96272274403089797</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
         <v>19.421883936820802</v>
       </c>
-      <c r="F4" s="2">
+      <c r="I4" s="2">
         <v>0.96249426592515397</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>18.5618156469727</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.962939010680953</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>60</v>
       </c>
@@ -4585,26 +4814,35 @@
       <c r="C5" s="4">
         <v>0.93127283000000005</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>60</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
+        <v>115.74010651372301</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.93356727414824203</v>
+      </c>
+      <c r="G5" s="2">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2">
         <v>112.10818704168101</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I5" s="2">
         <v>0.93334842362495396</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>60</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>106.76300425129899</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0.93283331256795898</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>110</v>
       </c>
@@ -4614,26 +4852,35 @@
       <c r="C6" s="4">
         <v>0.90898635699999997</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>110</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
+        <v>214.71796196932601</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.91607377984550498</v>
+      </c>
+      <c r="G6" s="2">
+        <v>110</v>
+      </c>
+      <c r="H6" s="2">
         <v>206.981596530301</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I6" s="2">
         <v>0.91655197337123895</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>110</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>195.70628983097799</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>0.91611328125000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>160</v>
       </c>
@@ -4643,26 +4890,35 @@
       <c r="C7" s="4">
         <v>0.89300382700000003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>160</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
+        <v>316.41609174805097</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.900784117037423</v>
+      </c>
+      <c r="G7" s="2">
+        <v>160</v>
+      </c>
+      <c r="H7" s="2">
         <v>303.22260740772498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>0.90081604379983604</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>160</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>285.557071671872</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>0.90270945655128598</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>210</v>
       </c>
@@ -4672,26 +4928,35 @@
       <c r="C8" s="4">
         <v>0.88294243699999997</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>210</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
+        <v>416.86453307364201</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.88912302634559603</v>
+      </c>
+      <c r="G8" s="2">
+        <v>210</v>
+      </c>
+      <c r="H8" s="2">
         <v>400.50126165972</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="2">
         <v>0.89083956766491401</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>210</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>376.08871021418702</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>0.89115862291591097</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>260</v>
       </c>
@@ -4701,26 +4966,35 @@
       <c r="C9" s="4">
         <v>0.87346379900000004</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>260</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
+        <v>516.39846463169397</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.88049416398604496</v>
+      </c>
+      <c r="G9" s="2">
+        <v>260</v>
+      </c>
+      <c r="H9" s="2">
         <v>496.453222745483</v>
       </c>
-      <c r="F9" s="2">
+      <c r="I9" s="2">
         <v>0.88100049695315297</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>260</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>468.28595581044499</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>0.88040517963936205</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>310</v>
       </c>
@@ -4730,26 +5004,35 @@
       <c r="C10" s="4">
         <v>0.86388934500000003</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>310</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
+        <v>616.99410351605104</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.87138962118294605</v>
+      </c>
+      <c r="G10" s="2">
+        <v>310</v>
+      </c>
+      <c r="H10" s="2">
         <v>594.04445005151501</v>
       </c>
-      <c r="F10" s="2">
+      <c r="I10" s="2">
         <v>0.87193648202473695</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>310</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>558.74060596471702</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>0.87274445564516101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>360</v>
       </c>
@@ -4759,26 +5042,35 @@
       <c r="C11" s="4">
         <v>0.85622189599999998</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>360</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
+        <v>716.29633385730904</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.86491638161471496</v>
+      </c>
+      <c r="G11" s="2">
+        <v>360</v>
+      </c>
+      <c r="H11" s="2">
         <v>687.31687142683302</v>
       </c>
-      <c r="F11" s="2">
+      <c r="I11" s="2">
         <v>0.86553194516808596</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>360</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>647.64367420855899</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>0.86562843336580197</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>410</v>
       </c>
@@ -4788,26 +5080,35 @@
       <c r="C12" s="4">
         <v>0.84865373099999997</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>410</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
+        <v>816.48922027628396</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.85780481917134799</v>
+      </c>
+      <c r="G12" s="2">
+        <v>410</v>
+      </c>
+      <c r="H12" s="2">
         <v>784.43358507330004</v>
       </c>
-      <c r="F12" s="2">
+      <c r="I12" s="2">
         <v>0.858915424519753</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>410</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>737.40401430323902</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>0.859505892646792</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>460</v>
       </c>
@@ -4817,26 +5118,35 @@
       <c r="C13" s="4">
         <v>0.84050699100000004</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>460</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
+        <v>918.41102659124897</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.85038404143258395</v>
+      </c>
+      <c r="G13" s="2">
+        <v>460</v>
+      </c>
+      <c r="H13" s="2">
         <v>881.310166266338</v>
       </c>
-      <c r="F13" s="2">
+      <c r="I13" s="2">
         <v>0.85231748652138395</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>460</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>828.48479516729697</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>0.852953048545668</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>510</v>
       </c>
@@ -4846,26 +5156,35 @@
       <c r="C14" s="4">
         <v>0.82329545800000004</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>510</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
+        <v>1037.5761137023001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.83703164642986505</v>
+      </c>
+      <c r="G14" s="2">
+        <v>510</v>
+      </c>
+      <c r="H14" s="2">
         <v>991.65180765180696</v>
       </c>
-      <c r="F14" s="2">
+      <c r="I14" s="2">
         <v>0.836900435223359</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>510</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>927.18191066915995</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>0.83715797305409501</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>560</v>
       </c>
@@ -4875,26 +5194,35 @@
       <c r="C15" s="4">
         <v>0.81584367400000002</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>560</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="7">
+        <v>1145.15666166754</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.83161719316328298</v>
+      </c>
+      <c r="G15" s="2">
+        <v>560</v>
+      </c>
+      <c r="H15" s="2">
         <v>1092.7577937649801</v>
       </c>
-      <c r="F15" s="2">
+      <c r="I15" s="2">
         <v>0.831113727233599</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>560</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>1023.07296759007</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>0.83059334224356596</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>610</v>
       </c>
@@ -4904,26 +5232,35 @@
       <c r="C16" s="4">
         <v>0.80797054099999999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>610</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="7">
+        <v>1253.1452650255001</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.82278477114670101</v>
+      </c>
+      <c r="G16" s="2">
+        <v>610</v>
+      </c>
+      <c r="H16" s="2">
         <v>1195.35265496086</v>
       </c>
-      <c r="F16" s="2">
+      <c r="I16" s="2">
         <v>0.82722407773423301</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>610</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>1114.0002365837299</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>0.82267306287377595</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>660</v>
       </c>
@@ -4933,26 +5270,35 @@
       <c r="C17" s="4">
         <v>0.80103992000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>660</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="7">
+        <v>1363.2580582899</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.819827652115802</v>
+      </c>
+      <c r="G17" s="2">
+        <v>660</v>
+      </c>
+      <c r="H17" s="2">
         <v>1299.0096096372199</v>
       </c>
-      <c r="F17" s="2">
+      <c r="I17" s="2">
         <v>0.82196412592877799</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>660</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>1210.2535983550299</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>0.81954721338120695</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>710</v>
       </c>
@@ -4962,26 +5308,35 @@
       <c r="C18" s="4">
         <v>0.79385916000000001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>710</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="7">
+        <v>1470.85381091212</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.81203224815376895</v>
+      </c>
+      <c r="G18" s="2">
+        <v>710</v>
+      </c>
+      <c r="H18" s="2">
         <v>1404.4621197056999</v>
       </c>
-      <c r="F18" s="2">
+      <c r="I18" s="2">
         <v>0.81446430998550201</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>710</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>1306.63953380815</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>0.81151363293992296</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>760</v>
       </c>
@@ -4991,26 +5346,35 @@
       <c r="C19" s="4">
         <v>0.78769478199999998</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
         <v>760</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="7">
+        <v>1576.04373535646</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.80703319675380503</v>
+      </c>
+      <c r="G19" s="2">
+        <v>760</v>
+      </c>
+      <c r="H19" s="2">
         <v>1501.2572400233801</v>
       </c>
-      <c r="F19" s="2">
+      <c r="I19" s="2">
         <v>0.80850943786245</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>760</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>1400.84093613645</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>0.80863151702383096</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>810</v>
       </c>
@@ -5020,26 +5384,35 @@
       <c r="C20" s="4">
         <v>0.782100342</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <v>810</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="7">
+        <v>1676.3875867797999</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.80305994302736405</v>
+      </c>
+      <c r="G20" s="2">
+        <v>810</v>
+      </c>
+      <c r="H20" s="2">
         <v>1598.60578283256</v>
       </c>
-      <c r="F20" s="2">
+      <c r="I20" s="2">
         <v>0.80475107036063698</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>810</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>1490.56452463859</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>0.80127165498142405</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>860</v>
       </c>
@@ -5049,26 +5422,35 @@
       <c r="C21" s="4">
         <v>0.77656656999999996</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>860</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="7">
+        <v>1778.20745216515</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.79498834779358396</v>
+      </c>
+      <c r="G21" s="2">
+        <v>860</v>
+      </c>
+      <c r="H21" s="2">
         <v>1693.57151420692</v>
       </c>
-      <c r="F21" s="2">
+      <c r="I21" s="2">
         <v>0.80124546229385596</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>860</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>1579.3917710196699</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>0.80061789965793695</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>910</v>
       </c>
@@ -5078,26 +5460,35 @@
       <c r="C22" s="4">
         <v>0.77201279499999997</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <v>910</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="7">
+        <v>1882.97520661157</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.79166265517397605</v>
+      </c>
+      <c r="G22" s="2">
+        <v>910</v>
+      </c>
+      <c r="H22" s="2">
         <v>1794.0157480314899</v>
       </c>
-      <c r="F22" s="2">
+      <c r="I22" s="2">
         <v>0.79682303937114896</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>910</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>1668.8617165810099</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>0.79711345964343905</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>960</v>
       </c>
@@ -5107,27 +5498,37 @@
       <c r="C23" s="4">
         <v>0.76629836399999995</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <v>960</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
+        <v>1991.55223459749</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.78637764333771298</v>
+      </c>
+      <c r="G23" s="2">
+        <v>960</v>
+      </c>
+      <c r="H23" s="2">
         <v>1898.9218981045799</v>
       </c>
-      <c r="F23" s="2">
+      <c r="I23" s="2">
         <v>0.79136143926694402</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>960</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>1765.9807475934399</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>0.79207724294354798</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2min-tddd.xlsx
+++ b/2min-tddd.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="16875" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="b= i" sheetId="1" r:id="rId1"/>
-    <sheet name="b = i div 2" sheetId="2" r:id="rId2"/>
+    <sheet name="b= i(gcc)" sheetId="1" r:id="rId1"/>
+    <sheet name="b = i div 2(gcc)" sheetId="2" r:id="rId2"/>
+    <sheet name="b = i div 2(emacs)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Smooth</t>
   </si>
@@ -62,6 +63,18 @@
   <si>
     <t>Param = .8</t>
   </si>
+  <si>
+    <t>Emacs</t>
+  </si>
+  <si>
+    <t>Param =  .7</t>
+  </si>
+  <si>
+    <t>Param = .4</t>
+  </si>
+  <si>
+    <t>Param = 0.5</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -153,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +240,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b= i'!$B$3:$B$22</c:f>
+              <c:f>'b= i(gcc)'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -289,7 +309,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b= i'!$C$3:$C$22</c:f>
+              <c:f>'b= i(gcc)'!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -388,7 +408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b= i'!$E$3:$E$22</c:f>
+              <c:f>'b= i(gcc)'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -457,7 +477,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b= i'!$F$3:$F$22</c:f>
+              <c:f>'b= i(gcc)'!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -534,8 +554,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="122880768"/>
-        <c:axId val="122877632"/>
+        <c:axId val="120739712"/>
+        <c:axId val="120740104"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -572,7 +592,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'b= i'!$H$3:$H$22</c15:sqref>
+                          <c15:sqref>'b= i(gcc)'!$H$3:$H$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -647,7 +667,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'b= i'!$I$3:$I$22</c15:sqref>
+                          <c15:sqref>'b= i(gcc)'!$I$3:$I$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -754,7 +774,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'b= i'!$K$3:$K$22</c15:sqref>
+                          <c15:sqref>'b= i(gcc)'!$K$3:$K$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -829,7 +849,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'b= i'!$L$3:$L$22</c15:sqref>
+                          <c15:sqref>'b= i(gcc)'!$L$3:$L$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -939,7 +959,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'b= i'!$N$3:$N$22</c15:sqref>
+                          <c15:sqref>'b= i(gcc)'!$N$3:$N$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1014,7 +1034,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'b= i'!$O$3:$O$22</c15:sqref>
+                          <c15:sqref>'b= i(gcc)'!$O$3:$O$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1091,7 +1111,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122880768"/>
+        <c:axId val="120739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,12 +1199,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122877632"/>
+        <c:crossAx val="120740104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122877632"/>
+        <c:axId val="120740104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000011"/>
@@ -1273,7 +1293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122880768"/>
+        <c:crossAx val="120739712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1377,6 +1397,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GCC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1413,7 +1489,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$B$4:$B$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1482,7 +1558,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$C$4:$C$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1555,7 +1631,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>SM = .7</c:v>
+            <c:v>SM = .8</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1581,138 +1657,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$H$4:$H$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$E$4:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>19.421883936820802</c:v>
+                  <c:v>20.054999737352802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.10818704168101</c:v>
+                  <c:v>115.74010651372301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.981596530301</c:v>
+                  <c:v>214.71796196932601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>303.22260740772498</c:v>
+                  <c:v>316.41609174805097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.50126165972</c:v>
+                  <c:v>416.86453307364201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>496.453222745483</c:v>
+                  <c:v>516.39846463169397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>594.04445005151501</c:v>
+                  <c:v>616.99410351605104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>687.31687142683302</c:v>
+                  <c:v>716.29633385730904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>784.43358507330004</c:v>
+                  <c:v>816.48922027628396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>881.310166266338</c:v>
+                  <c:v>918.41102659124897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>991.65180765180696</c:v>
+                  <c:v>1037.5761137023001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1092.7577937649801</c:v>
+                  <c:v>1145.15666166754</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1195.35265496086</c:v>
+                  <c:v>1253.1452650255001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1299.0096096372199</c:v>
+                  <c:v>1363.2580582899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1404.4621197056999</c:v>
+                  <c:v>1470.85381091212</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1501.2572400233801</c:v>
+                  <c:v>1576.04373535646</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1598.60578283256</c:v>
+                  <c:v>1676.3875867797999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1693.57151420692</c:v>
+                  <c:v>1778.20745216515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1794.0157480314899</c:v>
+                  <c:v>1882.97520661157</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1898.9218981045799</c:v>
+                  <c:v>1991.55223459749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$I$4:$I$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$F$4:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.96249426592515397</c:v>
+                  <c:v>0.96272274403089797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93334842362495396</c:v>
+                  <c:v>0.93356727414824203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91655197337123895</c:v>
+                  <c:v>0.91607377984550498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90081604379983604</c:v>
+                  <c:v>0.900784117037423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89083956766491401</c:v>
+                  <c:v>0.88912302634559603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88100049695315297</c:v>
+                  <c:v>0.88049416398604496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87193648202473695</c:v>
+                  <c:v>0.87138962118294605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86553194516808596</c:v>
+                  <c:v>0.86491638161471496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.858915424519753</c:v>
+                  <c:v>0.85780481917134799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85231748652138395</c:v>
+                  <c:v>0.85038404143258395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.836900435223359</c:v>
+                  <c:v>0.83703164642986505</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.831113727233599</c:v>
+                  <c:v>0.83161719316328298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82722407773423301</c:v>
+                  <c:v>0.82278477114670101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82196412592877799</c:v>
+                  <c:v>0.819827652115802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81446430998550201</c:v>
+                  <c:v>0.81203224815376895</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80850943786245</c:v>
+                  <c:v>0.80703319675380503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80475107036063698</c:v>
+                  <c:v>0.80305994302736405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.80124546229385596</c:v>
+                  <c:v>0.79498834779358396</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79682303937114896</c:v>
+                  <c:v>0.79166265517397605</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.79136143926694402</c:v>
+                  <c:v>0.78637764333771298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,7 +1799,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SM = .5</c:v>
+            <c:v>SM = .7</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1749,138 +1825,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$K$4:$K$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$H$4:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>18.5618156469727</c:v>
+                  <c:v>19.421883936820802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.76300425129899</c:v>
+                  <c:v>112.10818704168101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195.70628983097799</c:v>
+                  <c:v>206.981596530301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285.557071671872</c:v>
+                  <c:v>303.22260740772498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>376.08871021418702</c:v>
+                  <c:v>400.50126165972</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>468.28595581044499</c:v>
+                  <c:v>496.453222745483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>558.74060596471702</c:v>
+                  <c:v>594.04445005151501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>647.64367420855899</c:v>
+                  <c:v>687.31687142683302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>737.40401430323902</c:v>
+                  <c:v>784.43358507330004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>828.48479516729697</c:v>
+                  <c:v>881.310166266338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>927.18191066915995</c:v>
+                  <c:v>991.65180765180696</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1023.07296759007</c:v>
+                  <c:v>1092.7577937649801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1114.0002365837299</c:v>
+                  <c:v>1195.35265496086</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1210.2535983550299</c:v>
+                  <c:v>1299.0096096372199</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1306.63953380815</c:v>
+                  <c:v>1404.4621197056999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1400.84093613645</c:v>
+                  <c:v>1501.2572400233801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1490.56452463859</c:v>
+                  <c:v>1598.60578283256</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1579.3917710196699</c:v>
+                  <c:v>1693.57151420692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1668.8617165810099</c:v>
+                  <c:v>1794.0157480314899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1765.9807475934399</c:v>
+                  <c:v>1898.9218981045799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$L$4:$L$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$I$4:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.962939010680953</c:v>
+                  <c:v>0.96249426592515397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93283331256795898</c:v>
+                  <c:v>0.93334842362495396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91611328125000002</c:v>
+                  <c:v>0.91655197337123895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90270945655128598</c:v>
+                  <c:v>0.90081604379983604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89115862291591097</c:v>
+                  <c:v>0.89083956766491401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88040517963936205</c:v>
+                  <c:v>0.88100049695315297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87274445564516101</c:v>
+                  <c:v>0.87193648202473695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86562843336580197</c:v>
+                  <c:v>0.86553194516808596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.859505892646792</c:v>
+                  <c:v>0.858915424519753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.852953048545668</c:v>
+                  <c:v>0.85231748652138395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83715797305409501</c:v>
+                  <c:v>0.836900435223359</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83059334224356596</c:v>
+                  <c:v>0.831113727233599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82267306287377595</c:v>
+                  <c:v>0.82722407773423301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81954721338120695</c:v>
+                  <c:v>0.82196412592877799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81151363293992296</c:v>
+                  <c:v>0.81446430998550201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80863151702383096</c:v>
+                  <c:v>0.80850943786245</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80127165498142405</c:v>
+                  <c:v>0.80475107036063698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.80061789965793695</c:v>
+                  <c:v>0.80124546229385596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79711345964343905</c:v>
+                  <c:v>0.79682303937114896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.79207724294354798</c:v>
+                  <c:v>0.79136143926694402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,7 +1967,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>SM = .8</c:v>
+            <c:v>SM = .5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1917,138 +1993,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$E$4:$E$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$K$4:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>20.054999737352802</c:v>
+                  <c:v>18.5618156469727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.74010651372301</c:v>
+                  <c:v>106.76300425129899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214.71796196932601</c:v>
+                  <c:v>195.70628983097799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>316.41609174805097</c:v>
+                  <c:v>285.557071671872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>416.86453307364201</c:v>
+                  <c:v>376.08871021418702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>516.39846463169397</c:v>
+                  <c:v>468.28595581044499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>616.99410351605104</c:v>
+                  <c:v>558.74060596471702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>716.29633385730904</c:v>
+                  <c:v>647.64367420855899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>816.48922027628396</c:v>
+                  <c:v>737.40401430323902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>918.41102659124897</c:v>
+                  <c:v>828.48479516729697</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1037.5761137023001</c:v>
+                  <c:v>927.18191066915995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1145.15666166754</c:v>
+                  <c:v>1023.07296759007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1253.1452650255001</c:v>
+                  <c:v>1114.0002365837299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1363.2580582899</c:v>
+                  <c:v>1210.2535983550299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1470.85381091212</c:v>
+                  <c:v>1306.63953380815</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1576.04373535646</c:v>
+                  <c:v>1400.84093613645</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1676.3875867797999</c:v>
+                  <c:v>1490.56452463859</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1778.20745216515</c:v>
+                  <c:v>1579.3917710196699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1882.97520661157</c:v>
+                  <c:v>1668.8617165810099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1991.55223459749</c:v>
+                  <c:v>1765.9807475934399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'b = i div 2'!$F$4:$F$23</c:f>
+              <c:f>'b = i div 2(gcc)'!$L$4:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.96272274403089797</c:v>
+                  <c:v>0.962939010680953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93356727414824203</c:v>
+                  <c:v>0.93283331256795898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91607377984550498</c:v>
+                  <c:v>0.91611328125000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.900784117037423</c:v>
+                  <c:v>0.90270945655128598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88912302634559603</c:v>
+                  <c:v>0.89115862291591097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88049416398604496</c:v>
+                  <c:v>0.88040517963936205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87138962118294605</c:v>
+                  <c:v>0.87274445564516101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86491638161471496</c:v>
+                  <c:v>0.86562843336580197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85780481917134799</c:v>
+                  <c:v>0.859505892646792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85038404143258395</c:v>
+                  <c:v>0.852953048545668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83703164642986505</c:v>
+                  <c:v>0.83715797305409501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83161719316328298</c:v>
+                  <c:v>0.83059334224356596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82278477114670101</c:v>
+                  <c:v>0.82267306287377595</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.819827652115802</c:v>
+                  <c:v>0.81954721338120695</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81203224815376895</c:v>
+                  <c:v>0.81151363293992296</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80703319675380503</c:v>
+                  <c:v>0.80863151702383096</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80305994302736405</c:v>
+                  <c:v>0.80127165498142405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79498834779358396</c:v>
+                  <c:v>0.80061789965793695</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79166265517397605</c:v>
+                  <c:v>0.79711345964343905</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.78637764333771298</c:v>
+                  <c:v>0.79207724294354798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,11 +2139,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="122329752"/>
-        <c:axId val="122332496"/>
+        <c:axId val="319835592"/>
+        <c:axId val="319833632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122329752"/>
+        <c:axId val="319835592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,6 +2163,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>BlockSize</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2124,15 +2256,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122332496"/>
+        <c:crossAx val="319833632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122332496"/>
+        <c:axId val="319833632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.70000000000000007"/>
+          <c:min val="0.75000000000000011"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2150,6 +2282,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2187,7 +2375,1080 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122329752"/>
+        <c:crossAx val="319835592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Emacs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>21.665797492011901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.51257695146499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234.00318796863399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346.67203202270298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>457.179884648148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>568.03012163170399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>675.14859040194597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>783.99501879924298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>897.37890956936405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1013.41258048538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1141.46722454672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1272.5862001943599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1392.06871624782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1512.4638484638399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1627.7486077963399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1741.25206106058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1859.33321974214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1967.85765809088</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2092.5075103866998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2206.4622228213202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.736715115000391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.623259201741867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56638349306967395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53284106071121295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50842149989247698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48887934489364998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47351594268063801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45974543395175099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44702886128597102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43636740743274899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42322593691351201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40879605758328103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39978547393063801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39109367057984001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38354206580387801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37645879559938999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.37041815935838202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36424660203902098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.35897343945495702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.353641689230137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SM = .8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20.160931347371999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.823907559606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213.256900156992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312.48298572996703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>413.60016171416999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>513.13155378610895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>609.70089767944205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>707.007601935038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>803.82252559726896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>902.82341910040998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1010.53463390542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1118.19107148956</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1222.4982262220301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1331.1084004228601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1436.8539325842601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1533.93683815949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1640.1442885771501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1738.1088399256701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1844.2499014140001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1945.8678078934799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.741941328051689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62726817866358997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57419773420394105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53840706986041598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.513822742756881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49416781113152902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47924754286244903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46585058379926397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.453492134960509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44430594111667099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43107946048052798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41720995146817302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.407983742082421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39878798727322401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39197801405614602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38674242331678099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38084565974937401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37539896411675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36921653234477603</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36339323242492899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SM = .4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$Q$2:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>18.2119335348272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.39583147314301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.126316156271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276.42258848959699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364.10356793309001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>451.13799851169898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>536.78231783301601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>622.381749049429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>708.44579095433801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>793.63103030303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>884.71961732832403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>976.328770391577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1065.4585692898499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1153.9807536395299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1241.55339805825</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1326.2013368442299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1414.2595472610999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500.1273885350299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1587.95498641831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1673.51395562825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$R$2:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.73762081028112203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61776549548404702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56884533473764398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53388241173365603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.505583481584297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48611317128362502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46913790638684699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45685026367492898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44625973813340603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43500028102517901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42663074024476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40902756734829498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.404239295384344</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39253786508836402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38879470133132599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38140297544572999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.37536044533938001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36532011822607102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36360745303213898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36160417114677801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SM = .7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>19.518495818139701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.424680538337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.01015662855301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.17647058823502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.15234180217197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>494.78991596638599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>587.02625161382798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680.56628484709802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>774.828524768644</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>867.41951723589705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>970.05096598316902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1074.6924036504399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1171.6574209942301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1268.69012556192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1372.92010903753</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1469.6870931537501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1567.87739463601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1661.7908629441599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1762.3428079242001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1862.29478354855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'b = i div 2(emacs)'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.74133883450304905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62627738162730595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57456184508914598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53812131001720298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51365479966570204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49307557011455999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47964226105528601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.465627749159368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45321978490577097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44463635952650898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43171964805872598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41818633069088201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40881130014466599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40118818667891698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39353461863661199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38787837596770403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38152946732288001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375267981945964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37143797529910799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36541844649280503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="695173504"/>
+        <c:axId val="695171152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="695173504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>BlockSize</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695171152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="695171152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695173504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2348,6 +3609,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2865,6 +4166,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3429,6 +5246,41 @@
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4722,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5531,4 +7383,1350 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>21.665797492011901</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.736715115000391</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>20.160931347371999</v>
+      </c>
+      <c r="F2">
+        <v>0.741941328051689</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>19.518495818139701</v>
+      </c>
+      <c r="I2">
+        <v>0.74133883450304905</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>19.0785028483179</v>
+      </c>
+      <c r="L2">
+        <v>0.74079181288121598</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>18.657643686906201</v>
+      </c>
+      <c r="O2">
+        <v>0.73996682070104702</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>18.2119335348272</v>
+      </c>
+      <c r="R2">
+        <v>0.73762081028112203</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>18.002898080502799</v>
+      </c>
+      <c r="U2">
+        <v>0.74176663424695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8">
+        <v>126.51257695146499</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.623259201741867</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>115.823907559606</v>
+      </c>
+      <c r="F3">
+        <v>0.62726817866358997</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>112.424680538337</v>
+      </c>
+      <c r="I3">
+        <v>0.62627738162730595</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>109.485569044513</v>
+      </c>
+      <c r="L3">
+        <v>0.62479976955935201</v>
+      </c>
+      <c r="M3">
+        <v>60</v>
+      </c>
+      <c r="N3">
+        <v>106.999611056455</v>
+      </c>
+      <c r="O3">
+        <v>0.62231327709571405</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>104.39583147314301</v>
+      </c>
+      <c r="R3">
+        <v>0.61776549548404702</v>
+      </c>
+      <c r="S3">
+        <v>60</v>
+      </c>
+      <c r="T3">
+        <v>101.682465927021</v>
+      </c>
+      <c r="U3">
+        <v>0.61614590460783503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>110</v>
+      </c>
+      <c r="B4" s="8">
+        <v>234.00318796863399</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.56638349306967395</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>213.256900156992</v>
+      </c>
+      <c r="F4">
+        <v>0.57419773420394105</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>206.01015662855301</v>
+      </c>
+      <c r="I4">
+        <v>0.57456184508914598</v>
+      </c>
+      <c r="J4">
+        <v>110</v>
+      </c>
+      <c r="K4">
+        <v>200.221889238861</v>
+      </c>
+      <c r="L4">
+        <v>0.57396109267477302</v>
+      </c>
+      <c r="M4">
+        <v>110</v>
+      </c>
+      <c r="N4">
+        <v>195.368300441017</v>
+      </c>
+      <c r="O4">
+        <v>0.57218999257115999</v>
+      </c>
+      <c r="P4">
+        <v>110</v>
+      </c>
+      <c r="Q4">
+        <v>190.126316156271</v>
+      </c>
+      <c r="R4">
+        <v>0.56884533473764398</v>
+      </c>
+      <c r="S4">
+        <v>110</v>
+      </c>
+      <c r="T4">
+        <v>184.75180026637099</v>
+      </c>
+      <c r="U4">
+        <v>0.56257153923600201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>160</v>
+      </c>
+      <c r="B5" s="8">
+        <v>346.67203202270298</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.53284106071121295</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>312.48298572996703</v>
+      </c>
+      <c r="F5">
+        <v>0.53840706986041598</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>301.17647058823502</v>
+      </c>
+      <c r="I5">
+        <v>0.53812131001720298</v>
+      </c>
+      <c r="J5">
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <v>291.86715998751799</v>
+      </c>
+      <c r="L5">
+        <v>0.53701795017790099</v>
+      </c>
+      <c r="M5">
+        <v>160</v>
+      </c>
+      <c r="N5">
+        <v>284.49635442465899</v>
+      </c>
+      <c r="O5">
+        <v>0.53738264144119396</v>
+      </c>
+      <c r="P5">
+        <v>160</v>
+      </c>
+      <c r="Q5">
+        <v>276.42258848959699</v>
+      </c>
+      <c r="R5">
+        <v>0.53388241173365603</v>
+      </c>
+      <c r="S5">
+        <v>160</v>
+      </c>
+      <c r="T5">
+        <v>267.97154714448197</v>
+      </c>
+      <c r="U5">
+        <v>0.52808816126446601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>210</v>
+      </c>
+      <c r="B6" s="8">
+        <v>457.179884648148</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.50842149989247698</v>
+      </c>
+      <c r="D6">
+        <v>210</v>
+      </c>
+      <c r="E6">
+        <v>413.60016171416999</v>
+      </c>
+      <c r="F6">
+        <v>0.513822742756881</v>
+      </c>
+      <c r="G6">
+        <v>210</v>
+      </c>
+      <c r="H6">
+        <v>398.15234180217197</v>
+      </c>
+      <c r="I6">
+        <v>0.51365479966570204</v>
+      </c>
+      <c r="J6">
+        <v>210</v>
+      </c>
+      <c r="K6">
+        <v>385.93450121425002</v>
+      </c>
+      <c r="L6">
+        <v>0.51162277379183596</v>
+      </c>
+      <c r="M6">
+        <v>210</v>
+      </c>
+      <c r="N6">
+        <v>375.53518784055001</v>
+      </c>
+      <c r="O6">
+        <v>0.50976321184899898</v>
+      </c>
+      <c r="P6">
+        <v>210</v>
+      </c>
+      <c r="Q6">
+        <v>364.10356793309001</v>
+      </c>
+      <c r="R6">
+        <v>0.505583481584297</v>
+      </c>
+      <c r="S6">
+        <v>210</v>
+      </c>
+      <c r="T6">
+        <v>353.046329048399</v>
+      </c>
+      <c r="U6">
+        <v>0.50110433731818804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>260</v>
+      </c>
+      <c r="B7" s="8">
+        <v>568.03012163170399</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.48887934489364998</v>
+      </c>
+      <c r="D7">
+        <v>260</v>
+      </c>
+      <c r="E7">
+        <v>513.13155378610895</v>
+      </c>
+      <c r="F7">
+        <v>0.49416781113152902</v>
+      </c>
+      <c r="G7">
+        <v>260</v>
+      </c>
+      <c r="H7">
+        <v>494.78991596638599</v>
+      </c>
+      <c r="I7">
+        <v>0.49307557011455999</v>
+      </c>
+      <c r="J7">
+        <v>260</v>
+      </c>
+      <c r="K7">
+        <v>478.59421370407699</v>
+      </c>
+      <c r="L7">
+        <v>0.491644663209649</v>
+      </c>
+      <c r="M7">
+        <v>260</v>
+      </c>
+      <c r="N7">
+        <v>466.01110320284698</v>
+      </c>
+      <c r="O7">
+        <v>0.49067069713794098</v>
+      </c>
+      <c r="P7">
+        <v>260</v>
+      </c>
+      <c r="Q7">
+        <v>451.13799851169898</v>
+      </c>
+      <c r="R7">
+        <v>0.48611317128362502</v>
+      </c>
+      <c r="S7">
+        <v>260</v>
+      </c>
+      <c r="T7">
+        <v>437.36596705454798</v>
+      </c>
+      <c r="U7">
+        <v>0.47919634740577099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>310</v>
+      </c>
+      <c r="B8" s="8">
+        <v>675.14859040194597</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.47351594268063801</v>
+      </c>
+      <c r="D8">
+        <v>310</v>
+      </c>
+      <c r="E8">
+        <v>609.70089767944205</v>
+      </c>
+      <c r="F8">
+        <v>0.47924754286244903</v>
+      </c>
+      <c r="G8">
+        <v>310</v>
+      </c>
+      <c r="H8">
+        <v>587.02625161382798</v>
+      </c>
+      <c r="I8">
+        <v>0.47964226105528601</v>
+      </c>
+      <c r="J8">
+        <v>310</v>
+      </c>
+      <c r="K8">
+        <v>568.54309581285497</v>
+      </c>
+      <c r="L8">
+        <v>0.47817808932201999</v>
+      </c>
+      <c r="M8">
+        <v>310</v>
+      </c>
+      <c r="N8">
+        <v>553.724163593924</v>
+      </c>
+      <c r="O8">
+        <v>0.47655141172388099</v>
+      </c>
+      <c r="P8">
+        <v>310</v>
+      </c>
+      <c r="Q8">
+        <v>536.78231783301601</v>
+      </c>
+      <c r="R8">
+        <v>0.46913790638684699</v>
+      </c>
+      <c r="S8">
+        <v>310</v>
+      </c>
+      <c r="T8">
+        <v>519.70535941071796</v>
+      </c>
+      <c r="U8">
+        <v>0.460125612146152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>360</v>
+      </c>
+      <c r="B9" s="8">
+        <v>783.99501879924298</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.45974543395175099</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>707.007601935038</v>
+      </c>
+      <c r="F9">
+        <v>0.46585058379926397</v>
+      </c>
+      <c r="G9">
+        <v>360</v>
+      </c>
+      <c r="H9">
+        <v>680.56628484709802</v>
+      </c>
+      <c r="I9">
+        <v>0.465627749159368</v>
+      </c>
+      <c r="J9">
+        <v>360</v>
+      </c>
+      <c r="K9">
+        <v>659.30801143915903</v>
+      </c>
+      <c r="L9">
+        <v>0.46538887775649002</v>
+      </c>
+      <c r="M9">
+        <v>360</v>
+      </c>
+      <c r="N9">
+        <v>641.68097534203605</v>
+      </c>
+      <c r="O9">
+        <v>0.46380203242297402</v>
+      </c>
+      <c r="P9">
+        <v>360</v>
+      </c>
+      <c r="Q9">
+        <v>622.381749049429</v>
+      </c>
+      <c r="R9">
+        <v>0.45685026367492898</v>
+      </c>
+      <c r="S9">
+        <v>360</v>
+      </c>
+      <c r="T9">
+        <v>602.929811960145</v>
+      </c>
+      <c r="U9">
+        <v>0.44763001080114101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>410</v>
+      </c>
+      <c r="B10" s="8">
+        <v>897.37890956936405</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.44702886128597102</v>
+      </c>
+      <c r="D10">
+        <v>410</v>
+      </c>
+      <c r="E10">
+        <v>803.82252559726896</v>
+      </c>
+      <c r="F10">
+        <v>0.453492134960509</v>
+      </c>
+      <c r="G10">
+        <v>410</v>
+      </c>
+      <c r="H10">
+        <v>774.828524768644</v>
+      </c>
+      <c r="I10">
+        <v>0.45321978490577097</v>
+      </c>
+      <c r="J10">
+        <v>410</v>
+      </c>
+      <c r="K10">
+        <v>749.72014839921201</v>
+      </c>
+      <c r="L10">
+        <v>0.45403451355763202</v>
+      </c>
+      <c r="M10">
+        <v>410</v>
+      </c>
+      <c r="N10">
+        <v>729.71669304326497</v>
+      </c>
+      <c r="O10">
+        <v>0.45262957093564199</v>
+      </c>
+      <c r="P10">
+        <v>410</v>
+      </c>
+      <c r="Q10">
+        <v>708.44579095433801</v>
+      </c>
+      <c r="R10">
+        <v>0.44625973813340603</v>
+      </c>
+      <c r="S10">
+        <v>410</v>
+      </c>
+      <c r="T10">
+        <v>686.08600888590797</v>
+      </c>
+      <c r="U10">
+        <v>0.43723623343173201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>460</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1013.41258048538</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.43636740743274899</v>
+      </c>
+      <c r="D11">
+        <v>460</v>
+      </c>
+      <c r="E11">
+        <v>902.82341910040998</v>
+      </c>
+      <c r="F11">
+        <v>0.44430594111667099</v>
+      </c>
+      <c r="G11">
+        <v>460</v>
+      </c>
+      <c r="H11">
+        <v>867.41951723589705</v>
+      </c>
+      <c r="I11">
+        <v>0.44463635952650898</v>
+      </c>
+      <c r="J11">
+        <v>460</v>
+      </c>
+      <c r="K11">
+        <v>839.71887344174797</v>
+      </c>
+      <c r="L11">
+        <v>0.44265775898303</v>
+      </c>
+      <c r="M11">
+        <v>460</v>
+      </c>
+      <c r="N11">
+        <v>818.20699307690302</v>
+      </c>
+      <c r="O11">
+        <v>0.44211134828550203</v>
+      </c>
+      <c r="P11">
+        <v>460</v>
+      </c>
+      <c r="Q11">
+        <v>793.63103030303</v>
+      </c>
+      <c r="R11">
+        <v>0.43500028102517901</v>
+      </c>
+      <c r="S11">
+        <v>460</v>
+      </c>
+      <c r="T11">
+        <v>768.80559860974097</v>
+      </c>
+      <c r="U11">
+        <v>0.42881543610220502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>510</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1141.46722454672</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.42322593691351201</v>
+      </c>
+      <c r="D12">
+        <v>510</v>
+      </c>
+      <c r="E12">
+        <v>1010.53463390542</v>
+      </c>
+      <c r="F12">
+        <v>0.43107946048052798</v>
+      </c>
+      <c r="G12">
+        <v>510</v>
+      </c>
+      <c r="H12">
+        <v>970.05096598316902</v>
+      </c>
+      <c r="I12">
+        <v>0.43171964805872598</v>
+      </c>
+      <c r="J12">
+        <v>510</v>
+      </c>
+      <c r="K12">
+        <v>939.05341059032696</v>
+      </c>
+      <c r="L12">
+        <v>0.43016044704996798</v>
+      </c>
+      <c r="M12">
+        <v>510</v>
+      </c>
+      <c r="N12">
+        <v>912.74095965650804</v>
+      </c>
+      <c r="O12">
+        <v>0.42982712674968698</v>
+      </c>
+      <c r="P12">
+        <v>510</v>
+      </c>
+      <c r="Q12">
+        <v>884.71961732832403</v>
+      </c>
+      <c r="R12">
+        <v>0.42663074024476</v>
+      </c>
+      <c r="S12">
+        <v>510</v>
+      </c>
+      <c r="T12">
+        <v>855.89897775105203</v>
+      </c>
+      <c r="U12">
+        <v>0.418828289949562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>560</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1272.5862001943599</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.40879605758328103</v>
+      </c>
+      <c r="D13">
+        <v>560</v>
+      </c>
+      <c r="E13">
+        <v>1118.19107148956</v>
+      </c>
+      <c r="F13">
+        <v>0.41720995146817302</v>
+      </c>
+      <c r="G13">
+        <v>560</v>
+      </c>
+      <c r="H13">
+        <v>1074.6924036504399</v>
+      </c>
+      <c r="I13">
+        <v>0.41818633069088201</v>
+      </c>
+      <c r="J13">
+        <v>560</v>
+      </c>
+      <c r="K13">
+        <v>1037.07289257769</v>
+      </c>
+      <c r="L13">
+        <v>0.41766603700735</v>
+      </c>
+      <c r="M13">
+        <v>560</v>
+      </c>
+      <c r="N13">
+        <v>1007.95221527756</v>
+      </c>
+      <c r="O13">
+        <v>0.41532558599859198</v>
+      </c>
+      <c r="P13">
+        <v>560</v>
+      </c>
+      <c r="Q13">
+        <v>976.328770391577</v>
+      </c>
+      <c r="R13">
+        <v>0.40902756734829498</v>
+      </c>
+      <c r="S13">
+        <v>560</v>
+      </c>
+      <c r="T13">
+        <v>942.59537588897501</v>
+      </c>
+      <c r="U13">
+        <v>0.40609968207499197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>610</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1392.06871624782</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.39978547393063801</v>
+      </c>
+      <c r="D14">
+        <v>610</v>
+      </c>
+      <c r="E14">
+        <v>1222.4982262220301</v>
+      </c>
+      <c r="F14">
+        <v>0.407983742082421</v>
+      </c>
+      <c r="G14">
+        <v>610</v>
+      </c>
+      <c r="H14">
+        <v>1171.6574209942301</v>
+      </c>
+      <c r="I14">
+        <v>0.40881130014466599</v>
+      </c>
+      <c r="J14">
+        <v>610</v>
+      </c>
+      <c r="K14">
+        <v>1129.92372208608</v>
+      </c>
+      <c r="L14">
+        <v>0.40811029505200103</v>
+      </c>
+      <c r="M14">
+        <v>610</v>
+      </c>
+      <c r="N14">
+        <v>1100.74577183013</v>
+      </c>
+      <c r="O14">
+        <v>0.408180276431029</v>
+      </c>
+      <c r="P14">
+        <v>610</v>
+      </c>
+      <c r="Q14">
+        <v>1065.4585692898499</v>
+      </c>
+      <c r="R14">
+        <v>0.404239295384344</v>
+      </c>
+      <c r="S14">
+        <v>610</v>
+      </c>
+      <c r="T14">
+        <v>1030.0572651186201</v>
+      </c>
+      <c r="U14">
+        <v>0.39613850020527003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>660</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1512.4638484638399</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.39109367057984001</v>
+      </c>
+      <c r="D15">
+        <v>660</v>
+      </c>
+      <c r="E15">
+        <v>1331.1084004228601</v>
+      </c>
+      <c r="F15">
+        <v>0.39878798727322401</v>
+      </c>
+      <c r="G15">
+        <v>660</v>
+      </c>
+      <c r="H15">
+        <v>1268.69012556192</v>
+      </c>
+      <c r="I15">
+        <v>0.40118818667891698</v>
+      </c>
+      <c r="J15">
+        <v>660</v>
+      </c>
+      <c r="K15">
+        <v>1226.2990710218701</v>
+      </c>
+      <c r="L15">
+        <v>0.39956343349233597</v>
+      </c>
+      <c r="M15">
+        <v>660</v>
+      </c>
+      <c r="N15">
+        <v>1189.8408083157599</v>
+      </c>
+      <c r="O15">
+        <v>0.39832377644080302</v>
+      </c>
+      <c r="P15">
+        <v>660</v>
+      </c>
+      <c r="Q15">
+        <v>1153.9807536395299</v>
+      </c>
+      <c r="R15">
+        <v>0.39253786508836402</v>
+      </c>
+      <c r="S15">
+        <v>660</v>
+      </c>
+      <c r="T15">
+        <v>1113.7402190923301</v>
+      </c>
+      <c r="U15">
+        <v>0.38855787652486701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>710</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1627.7486077963399</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.38354206580387801</v>
+      </c>
+      <c r="D16">
+        <v>710</v>
+      </c>
+      <c r="E16">
+        <v>1436.8539325842601</v>
+      </c>
+      <c r="F16">
+        <v>0.39197801405614602</v>
+      </c>
+      <c r="G16">
+        <v>710</v>
+      </c>
+      <c r="H16">
+        <v>1372.92010903753</v>
+      </c>
+      <c r="I16">
+        <v>0.39353461863661199</v>
+      </c>
+      <c r="J16">
+        <v>710</v>
+      </c>
+      <c r="K16">
+        <v>1320.58410649455</v>
+      </c>
+      <c r="L16">
+        <v>0.39173233084727799</v>
+      </c>
+      <c r="M16">
+        <v>710</v>
+      </c>
+      <c r="N16">
+        <v>1282.25608084289</v>
+      </c>
+      <c r="O16">
+        <v>0.39189779969502597</v>
+      </c>
+      <c r="P16">
+        <v>710</v>
+      </c>
+      <c r="Q16">
+        <v>1241.55339805825</v>
+      </c>
+      <c r="R16">
+        <v>0.38879470133132599</v>
+      </c>
+      <c r="S16">
+        <v>710</v>
+      </c>
+      <c r="T16">
+        <v>1198.15832814844</v>
+      </c>
+      <c r="U16">
+        <v>0.37874985337816702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>760</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1741.25206106058</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.37645879559938999</v>
+      </c>
+      <c r="D17">
+        <v>760</v>
+      </c>
+      <c r="E17">
+        <v>1533.93683815949</v>
+      </c>
+      <c r="F17">
+        <v>0.38674242331678099</v>
+      </c>
+      <c r="G17">
+        <v>760</v>
+      </c>
+      <c r="H17">
+        <v>1469.6870931537501</v>
+      </c>
+      <c r="I17">
+        <v>0.38787837596770403</v>
+      </c>
+      <c r="J17">
+        <v>760</v>
+      </c>
+      <c r="K17">
+        <v>1413.6488470506899</v>
+      </c>
+      <c r="L17">
+        <v>0.38691119115577099</v>
+      </c>
+      <c r="M17">
+        <v>760</v>
+      </c>
+      <c r="N17">
+        <v>1373.0352724069901</v>
+      </c>
+      <c r="O17">
+        <v>0.38623630307710299</v>
+      </c>
+      <c r="P17">
+        <v>760</v>
+      </c>
+      <c r="Q17">
+        <v>1326.2013368442299</v>
+      </c>
+      <c r="R17">
+        <v>0.38140297544572999</v>
+      </c>
+      <c r="S17">
+        <v>760</v>
+      </c>
+      <c r="T17">
+        <v>1282.45700630704</v>
+      </c>
+      <c r="U17">
+        <v>0.375078320495777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>810</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1859.33321974214</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.37041815935838202</v>
+      </c>
+      <c r="D18">
+        <v>810</v>
+      </c>
+      <c r="E18">
+        <v>1640.1442885771501</v>
+      </c>
+      <c r="F18">
+        <v>0.38084565974937401</v>
+      </c>
+      <c r="G18">
+        <v>810</v>
+      </c>
+      <c r="H18">
+        <v>1567.87739463601</v>
+      </c>
+      <c r="I18">
+        <v>0.38152946732288001</v>
+      </c>
+      <c r="J18">
+        <v>810</v>
+      </c>
+      <c r="K18">
+        <v>1507.24125230202</v>
+      </c>
+      <c r="L18">
+        <v>0.380802742317015</v>
+      </c>
+      <c r="M18">
+        <v>810</v>
+      </c>
+      <c r="N18">
+        <v>1464.75525727069</v>
+      </c>
+      <c r="O18">
+        <v>0.38071095094033403</v>
+      </c>
+      <c r="P18">
+        <v>810</v>
+      </c>
+      <c r="Q18">
+        <v>1414.2595472610999</v>
+      </c>
+      <c r="R18">
+        <v>0.37536044533938001</v>
+      </c>
+      <c r="S18">
+        <v>810</v>
+      </c>
+      <c r="T18">
+        <v>1369.58875454963</v>
+      </c>
+      <c r="U18">
+        <v>0.36799385898889497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>860</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1967.85765809088</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.36424660203902098</v>
+      </c>
+      <c r="D19">
+        <v>860</v>
+      </c>
+      <c r="E19">
+        <v>1738.1088399256701</v>
+      </c>
+      <c r="F19">
+        <v>0.37539896411675</v>
+      </c>
+      <c r="G19">
+        <v>860</v>
+      </c>
+      <c r="H19">
+        <v>1661.7908629441599</v>
+      </c>
+      <c r="I19">
+        <v>0.375267981945964</v>
+      </c>
+      <c r="J19">
+        <v>860</v>
+      </c>
+      <c r="K19">
+        <v>1601.7065414159199</v>
+      </c>
+      <c r="L19">
+        <v>0.37521806943032499</v>
+      </c>
+      <c r="M19">
+        <v>860</v>
+      </c>
+      <c r="N19">
+        <v>1552.5599924120199</v>
+      </c>
+      <c r="O19">
+        <v>0.372928752785814</v>
+      </c>
+      <c r="P19">
+        <v>860</v>
+      </c>
+      <c r="Q19">
+        <v>1500.1273885350299</v>
+      </c>
+      <c r="R19">
+        <v>0.36532011822607102</v>
+      </c>
+      <c r="S19">
+        <v>860</v>
+      </c>
+      <c r="T19">
+        <v>1450.9919333392399</v>
+      </c>
+      <c r="U19">
+        <v>0.35993750855293999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>910</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2092.5075103866998</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.35897343945495702</v>
+      </c>
+      <c r="D20">
+        <v>910</v>
+      </c>
+      <c r="E20">
+        <v>1844.2499014140001</v>
+      </c>
+      <c r="F20">
+        <v>0.36921653234477603</v>
+      </c>
+      <c r="G20">
+        <v>910</v>
+      </c>
+      <c r="H20">
+        <v>1762.3428079242001</v>
+      </c>
+      <c r="I20">
+        <v>0.37143797529910799</v>
+      </c>
+      <c r="J20">
+        <v>910</v>
+      </c>
+      <c r="K20">
+        <v>1696.4958283671001</v>
+      </c>
+      <c r="L20">
+        <v>0.37156541410893001</v>
+      </c>
+      <c r="M20">
+        <v>910</v>
+      </c>
+      <c r="N20">
+        <v>1644.4283705043199</v>
+      </c>
+      <c r="O20">
+        <v>0.36836615625977398</v>
+      </c>
+      <c r="P20">
+        <v>910</v>
+      </c>
+      <c r="Q20">
+        <v>1587.95498641831</v>
+      </c>
+      <c r="R20">
+        <v>0.36360745303213898</v>
+      </c>
+      <c r="S20">
+        <v>910</v>
+      </c>
+      <c r="T20">
+        <v>1533.7212461934801</v>
+      </c>
+      <c r="U20">
+        <v>0.35945603910892998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>960</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2206.4622228213202</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.353641689230137</v>
+      </c>
+      <c r="D21">
+        <v>960</v>
+      </c>
+      <c r="E21">
+        <v>1945.8678078934799</v>
+      </c>
+      <c r="F21">
+        <v>0.36339323242492899</v>
+      </c>
+      <c r="G21">
+        <v>960</v>
+      </c>
+      <c r="H21">
+        <v>1862.29478354855</v>
+      </c>
+      <c r="I21">
+        <v>0.36541844649280503</v>
+      </c>
+      <c r="J21">
+        <v>960</v>
+      </c>
+      <c r="K21">
+        <v>1792.93937236431</v>
+      </c>
+      <c r="L21">
+        <v>0.36521103769158503</v>
+      </c>
+      <c r="M21">
+        <v>960</v>
+      </c>
+      <c r="N21">
+        <v>1734.2416697568401</v>
+      </c>
+      <c r="O21">
+        <v>0.36295358074952999</v>
+      </c>
+      <c r="P21">
+        <v>960</v>
+      </c>
+      <c r="Q21">
+        <v>1673.51395562825</v>
+      </c>
+      <c r="R21">
+        <v>0.36160417114677801</v>
+      </c>
+      <c r="S21">
+        <v>960</v>
+      </c>
+      <c r="T21">
+        <v>1615.9376079767001</v>
+      </c>
+      <c r="U21">
+        <v>0.35555598999061599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>